--- a/Results/Results_Nonlinear.xlsx
+++ b/Results/Results_Nonlinear.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.691632846481234e-11</v>
+        <v>3.67212243431607e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.062405630816764e-10</v>
+        <v>1.05679077890548e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>2.433204146418503e-10</v>
+        <v>2.366500513044726e-10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 12, max\_features: 8 \\</t>
+          <t>max\_depth: 12, max\_features: 4 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.216655838791786e-11</v>
+        <v>3.988238207770583e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>9.257132054151546e-11</v>
+        <v>1.147764933615417e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>2.154500128227005e-10</v>
+        <v>2.574974502636706e-10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>max\_depth: 12, max\_features: 2, n\_estimators: 50 \\</t>
+          <t>max\_depth: 20, max\_features: 4, n\_estimators: 100 \\</t>
         </is>
       </c>
     </row>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01539463921713744</v>
+        <v>0.01539463816735604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04430384079031285</v>
+        <v>0.04430383776917363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.410727143363827</v>
+        <v>0.4107268348320598</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.945618063894561e-09</v>
+        <v>3.945610367475559e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>1.135499390772156e-08</v>
+        <v>1.135497175839299e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>4.462690888095448e-08</v>
+        <v>4.462623772540586e-08</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.1, max\_depth: 8, max\_features: 8, n\_estimators: 200 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 20, max\_features: 8, n\_estimators: 200 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001101341964054864</v>
+        <v>0.002436752793711043</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003169524036448974</v>
+        <v>0.007012668909950477</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004044864475366974</v>
+        <v>0.008997525472094618</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001001753173869437</v>
+        <v>0.0004319343040217862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002882919989245102</v>
+        <v>0.001243052751502812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004500797353067464</v>
+        <v>0.00463405332780157</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0008742762273535392</v>
+        <v>0.000938895325182778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002516057326001363</v>
+        <v>0.00270202298468684</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002731385168627851</v>
+        <v>0.007940134613968555</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001374664179845646</v>
+        <v>0.0004793595593218735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003956111091985179</v>
+        <v>0.001379536687931542</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007013285966158669</v>
+        <v>0.004735360254180725</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.002798576353018795</v>
+        <v>0.0003575322858004498</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008053951731824603</v>
+        <v>0.001028933074954201</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03259855550097886</v>
+        <v>0.005655058086763467</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009165845532708916</v>
+        <v>0.0001368895680671752</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002637815381458774</v>
+        <v>0.0003939510074878214</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005743880476160653</v>
+        <v>0.001328215614398349</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,18 +881,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.00203276905126246</v>
+        <v>0.01419298450495983</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005850054368948922</v>
+        <v>0.040845629246519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05777533822715641</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5]</t>
-        </is>
+        <v>0.3199107473844051</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -910,18 +908,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0004646380868645443</v>
+        <v>0.0141930185657954</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001337170136643842</v>
+        <v>0.04084572726933167</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002455738056704023</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 12, 12, 12, 12, 12, 13, 14, 14, 14, 14, 15, 16, 17, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 18, 19, 20, 20, 20, 20, 20, 20, 20, 20, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21]</t>
-        </is>
+        <v>0.3200967814489028</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -939,22 +935,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.005215309015228769</v>
+        <v>0.006862900695851521</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01500900521434518</v>
+        <v>0.01975056742156444</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1063063280060271</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.0816445523765585</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>mu: 0.1, omega: 50 \\</t>
+          <t>mu: 0.7, omega: 1000 \\</t>
         </is>
       </c>
     </row>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02399278280596287</v>
+        <v>0.02311367502653245</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06904821961456716</v>
+        <v>0.0665182576876872</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2078963878422658</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.4230242079533478</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.9, beta: 0.005, lambda1: 0.001, r: 0.1, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.2, lambda1: 0.001, omega: 100, sigma: 0.25 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.005229696708290038</v>
+        <v>0.01993895355860518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01505041119039538</v>
+        <v>0.05738180749325441</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007857151668960565</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 4, 5, 6, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 16, 17, 17, 18, 19, 20, 21, 22, 23, 23, 23, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 25, 26, 27, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 28, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 29, 30, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 35, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 38, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 39, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 40, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41]</t>
-        </is>
+        <v>0.06662477370852672</v>
+      </c>
+      <c r="F20" t="n">
+        <v>22</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02672665230989726</v>
+        <v>0.02288073555687941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07691595315060014</v>
+        <v>0.06584788711051905</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3566397620323341</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-        </is>
+        <v>0.4101871882527605</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.25 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001796864852590492</v>
+        <v>0.001056074939449582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005171151673516181</v>
+        <v>0.00303925121726325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001466578216691594</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 2, 3, 4, 4, 4, 4, 5, 5, 5, 6, 6, 6, 6, 7, 8, 8, 9, 9, 9, 10, 10, 11, 11, 12, 13, 13, 13, 14, 14, 14, 15, 15, 15, 16, 16, 16, 17, 17, 18, 19, 19, 19, 19, 20, 20, 21, 21, 21, 22, 22, 23, 23, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 25, 25, 26, 26, 26, 26, 26, 27, 27, 28, 28, 28, 29, 29, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 31, 31, 32, 32, 32, 32, 32, 32, 32, 33, 33, 33, 34, 34, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 36, 36, 36, 36, 35, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33]</t>
-        </is>
+        <v>0.001214520743626396</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.03, lambda1: 1e-07, sigma: 1 \\</t>
+          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.05, lambda1: 1e-07, sigma: 0.5 \\</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1070,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03384756012555791</v>
+        <v>0.03473620761666171</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09740903270236546</v>
+        <v>0.0999664487229206</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2363877267583658</v>
+        <v>0.3154160113108797</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: min, rules: 19 \\</t>
+          <t>fuzzy\_operator: min, rules: 11 \\</t>
         </is>
       </c>
     </row>
@@ -1111,13 +1097,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0246629616591077</v>
+        <v>0.02327701914315729</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07097691029656185</v>
+        <v>0.06698834156785539</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3772917548349646</v>
+        <v>0.3867533554693711</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1138,13 +1124,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02082503308567965</v>
+        <v>0.01968095229765509</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0599318332354207</v>
+        <v>0.05663931222411497</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2528608590329089</v>
+        <v>0.2862235057326275</v>
       </c>
       <c r="F25" t="n">
         <v>17</v>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02814528398547519</v>
+        <v>0.0798094740853547</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08099859718066831</v>
+        <v>0.229681656293705</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2309053501687374</v>
+        <v>1.970232644752311</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: CPPM, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0246629616591077</v>
+        <v>0.05261443719436805</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07097691029656185</v>
+        <v>0.1514177510659869</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3772917548349646</v>
+        <v>1.161269833682195</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.02082503308567965</v>
+        <v>0.01968095229765509</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0599318332354207</v>
+        <v>0.05663931222411497</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2528608590329089</v>
+        <v>0.2862235057326275</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: min, rules: 17 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: min, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.05409311042740485</v>
+        <v>0.05331473504411693</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1556731871676938</v>
+        <v>0.1534331204425251</v>
       </c>
       <c r="E29" t="n">
-        <v>1.065696251071529</v>
+        <v>0.8835163341767972</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1261,7 +1247,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02218938084017088</v>
+        <v>0.02112842501198145</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06385825494917617</v>
+        <v>0.0608049571463064</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3384561829997758</v>
+        <v>0.3511293216022359</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.027461227512939e-11</v>
+        <v>6.10675033539325e-11</v>
       </c>
       <c r="D31" t="n">
-        <v>1.446840284215642e-10</v>
+        <v>1.757446152452022e-10</v>
       </c>
       <c r="E31" t="n">
-        <v>6.931715196276963e-10</v>
+        <v>9.103460051744889e-10</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
